--- a/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
+++ b/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Brightkite_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225321ED-BDDF-4ACE-98EC-A0637C6F9DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8379BF6A-B3A2-40A8-AEE0-D640689602C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="114">
   <si>
     <t>proposition</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>User trying to define travelling patterns</t>
+  </si>
+  <si>
+    <t>He is trying to figure out which places have denser checkins in the world?</t>
   </si>
 </sst>
 </file>
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -986,7 +989,7 @@
         <v>1.8518518518518501E-4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1015,7 @@
         <v>2.5462962962962999E-4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1038,7 +1041,7 @@
         <v>4.1666666666666702E-4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1064,7 +1067,7 @@
         <v>5.09259259259259E-4</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1093,7 +1096,7 @@
         <v>7.2916666666666703E-4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1119,7 +1122,7 @@
         <v>7.2916666666666703E-4</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
         <v>9.8379629629629598E-4</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,7 +1174,7 @@
         <v>1.0185185185185199E-3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>1.30787037037037E-3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1223,7 +1226,7 @@
         <v>1.3425925925925901E-3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1249,7 +1252,7 @@
         <v>1.4236111111111101E-3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1278,7 +1281,7 @@
         <v>1.44675925925926E-3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1304,7 +1307,7 @@
         <v>1.49305555555556E-3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1330,7 +1333,7 @@
         <v>1.5162037037037E-3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1356,7 +1359,7 @@
         <v>1.55092592592593E-3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1382,7 +1385,7 @@
         <v>1.6087962962963E-3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,7 +1411,7 @@
         <v>1.7013888888888901E-3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1434,7 +1437,7 @@
         <v>1.72453703703704E-3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1460,7 +1463,7 @@
         <v>1.74768518518519E-3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1486,7 +1489,7 @@
         <v>1.77083333333333E-3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1512,7 +1515,7 @@
         <v>1.80555555555556E-3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1538,7 +1541,7 @@
         <v>2.04861111111111E-3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1668,7 +1671,7 @@
         <v>2.7430555555555602E-3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>46</v>
@@ -1697,7 +1700,10 @@
         <v>2.9050925925925902E-3</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1723,7 +1729,10 @@
         <v>2.9745370370370399E-3</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1749,10 +1758,7 @@
         <v>3.0902777777777799E-3</v>
       </c>
       <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1778,7 +1784,7 @@
         <v>3.1481481481481499E-3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1804,7 +1810,7 @@
         <v>3.1712962962963001E-3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,7 +1836,7 @@
         <v>3.4375E-3</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1859,7 +1865,7 @@
         <v>3.4606481481481502E-3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1885,7 +1891,7 @@
         <v>3.5069444444444401E-3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1911,7 +1917,7 @@
         <v>3.6226851851851902E-3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2200,7 +2206,7 @@
         <v>4.43287037037037E-3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>70</v>
@@ -2229,7 +2235,7 @@
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2255,7 +2261,7 @@
         <v>4.5717592592592598E-3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2281,7 +2287,7 @@
         <v>4.9652777777777803E-3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2307,7 +2313,7 @@
         <v>5.0578703703703697E-3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2333,7 +2339,7 @@
         <v>5.0810185185185203E-3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2359,7 +2365,7 @@
         <v>5.3356481481481501E-3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2385,7 +2391,7 @@
         <v>5.37037037037037E-3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2411,7 +2417,7 @@
         <v>5.7407407407407398E-3</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>80</v>
@@ -2440,7 +2446,7 @@
         <v>5.7986111111111103E-3</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2469,7 +2475,7 @@
         <v>5.8564814814814799E-3</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2498,7 +2504,7 @@
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2524,7 +2530,7 @@
         <v>6.0185185185185203E-3</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2550,7 +2556,7 @@
         <v>6.0648148148148198E-3</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2576,7 +2582,7 @@
         <v>6.15740740740741E-3</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2602,7 +2608,7 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2628,7 +2634,7 @@
         <v>6.37731481481482E-3</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2654,7 +2660,7 @@
         <v>7.1180555555555598E-3</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2680,7 +2686,7 @@
         <v>8.3564814814814804E-3</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>93</v>
@@ -2709,7 +2715,7 @@
         <v>9.4328703703703692E-3</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2735,7 +2741,7 @@
         <v>8.4953703703703701E-3</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2764,7 +2770,7 @@
         <v>9.4907407407407406E-3</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -2790,7 +2796,7 @@
         <v>9.5254629629629595E-3</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -2816,7 +2822,7 @@
         <v>9.5601851851851907E-3</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -2842,7 +2848,7 @@
         <v>9.6296296296296303E-3</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -2868,7 +2874,7 @@
         <v>9.6527777777777792E-3</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
+++ b/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
@@ -8,27 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Brightkite_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8379BF6A-B3A2-40A8-AEE0-D640689602C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB3DF8-8732-44A8-9E8A-7400A48BF028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1(2)" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet_1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="114">
   <si>
     <t>proposition</t>
   </si>
@@ -417,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -452,6 +448,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -492,11 +493,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -510,10 +512,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B2C90DDC-79C1-480A-8291-38724393BAEF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -892,10 +898,2003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B4FF71-334D-4266-BB26-9F92DB9AC724}">
+  <dimension ref="A1:J133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="100.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.8518518518518501E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.5462962962962999E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.1666666666666702E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.09259259259259E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.2916666666666703E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.2916666666666703E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9.8379629629629598E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0185185185185199E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.30787037037037E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.3425925925925901E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.4236111111111101E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.44675925925926E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.49305555555556E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.5162037037037E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.55092592592593E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.6087962962963E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.7013888888888901E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.72453703703704E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.74768518518519E-3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.77083333333333E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.80555555555556E-3</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.04861111111111E-3</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2.1990740740740699E-3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.2453703703703698E-3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.3726851851851899E-3</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.5115740740740702E-3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.7430555555555602E-3</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.9050925925925902E-3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.9745370370370399E-3</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3.0902777777777799E-3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3.1481481481481499E-3</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.1712962962963001E-3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.4375E-3</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.4606481481481502E-3</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3.5069444444444401E-3</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3.6226851851851902E-3</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.7384259259259302E-3</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3.9236111111111104E-3</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3.9814814814814799E-3</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4.0625000000000001E-3</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4.2013888888888899E-3</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4.2361111111111098E-3</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4.3287037037037001E-3</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4.3518518518518498E-3</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4.43287037037037E-3</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4.5717592592592598E-3</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.9652777777777803E-3</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5.0578703703703697E-3</v>
+      </c>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5.0810185185185203E-3</v>
+      </c>
+      <c r="I54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5.3356481481481501E-3</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5.7407407407407398E-3</v>
+      </c>
+      <c r="I57" s="5">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5.7986111111111103E-3</v>
+      </c>
+      <c r="I58" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5.8564814814814799E-3</v>
+      </c>
+      <c r="I59" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="I60" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
+        <v>6.0185185185185203E-3</v>
+      </c>
+      <c r="I61" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>6.0648148148148198E-3</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>6.15740740740741E-3</v>
+      </c>
+      <c r="I63" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>6.37731481481482E-3</v>
+      </c>
+      <c r="I65" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>7.1180555555555598E-3</v>
+      </c>
+      <c r="I66" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>8.3564814814814804E-3</v>
+      </c>
+      <c r="I67" s="5">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="2">
+        <v>9.4328703703703692E-3</v>
+      </c>
+      <c r="I68" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8.4953703703703701E-3</v>
+      </c>
+      <c r="I69" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="2">
+        <v>9.4907407407407406E-3</v>
+      </c>
+      <c r="I70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9.5254629629629595E-3</v>
+      </c>
+      <c r="I71" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>9.5601851851851907E-3</v>
+      </c>
+      <c r="I72" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9.6296296296296303E-3</v>
+      </c>
+      <c r="I73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9.6527777777777792E-3</v>
+      </c>
+      <c r="I74" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +4883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -3714,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -4232,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>

--- a/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
+++ b/Brightkite_neew/p5-brightkite-0ms-annot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Brightkite_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB3DF8-8732-44A8-9E8A-7400A48BF028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7AABA0-2CFD-4918-96DE-3394AC868400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1(2)" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -902,7 +902,7 @@
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
